--- a/チェックリスト.xlsx
+++ b/チェックリスト.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\sketch_sp\designs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\sg-seed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AG$30</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>案件名</t>
     <rPh sb="0" eb="3">
@@ -153,10 +153,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sketch HAIR SALON(スケッチ)</t>
+    <t>Nghia</t>
   </si>
   <si>
-    <t>Nghia</t>
+    <t>21/10/2014</t>
+  </si>
+  <si>
+    <t>有限会社ロードオブブライト</t>
+  </si>
+  <si>
+    <t>Clair reveiller</t>
   </si>
 </sst>
 </file>
@@ -1741,7 +1747,7 @@
   <dimension ref="A1:AF44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:AF24"/>
+      <selection activeCell="X6" sqref="X6:AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="14.25"/>
@@ -1810,7 +1816,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="6"/>
       <c r="G4" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -1831,8 +1837,8 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="10"/>
-      <c r="Y4" s="54">
-        <v>41876</v>
+      <c r="Y4" s="54" t="s">
+        <v>22</v>
       </c>
       <c r="Z4" s="54"/>
       <c r="AA4" s="54"/>
@@ -1853,7 +1859,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="6"/>
       <c r="X5" s="55" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y5" s="56"/>
       <c r="Z5" s="56"/>
@@ -1872,7 +1878,7 @@
       <c r="V6" s="5"/>
       <c r="W6" s="6"/>
       <c r="X6" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y6" s="56"/>
       <c r="Z6" s="56"/>
